--- a/data/soil_dssat_icasa.xlsx
+++ b/data/soil_dssat_icasa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmlle\Documents\0_DATA\TUM\HEF\2_FAIRagro\UseCases\UC6_IntegratedModeling\Workflows\csmTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F51231-D84B-4D2A-A2EA-0099854F2106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BD5566-622F-4F78-8EB3-D8456AD18524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>dssat_header</t>
   </si>
@@ -46,6 +46,9 @@
     <t>SLTX</t>
   </si>
   <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
     <t>SLDP</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>SCS FAMILY</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
   </si>
   <si>
     <t>SCOM</t>
@@ -354,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +532,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -695,8 +701,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1056,7 +1063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1126,10 +1133,10 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1137,10 +1144,10 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1148,10 +1155,10 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1159,10 +1166,10 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1170,10 +1177,10 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1181,11 +1188,9 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
